--- a/testdata/excel2project_files/test-name (test_label)/resources.xlsx
+++ b/testdata/excel2project_files/test-name (test_label)/resources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nusjoh00-adm/Desktop/dsp-tools/testdata/excel2project_files/test-name (test_label)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27DC590-7AAF-B340-8EF5-B3AD56087A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED63ABD-9B1F-6A48-8D86-EA3E5DC1D190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{7DA9512F-9D5C-45E8-B143-D0C99717614D}"/>
   </bookViews>
@@ -361,6 +361,9 @@
     <t xml:space="preserve">Resource  </t>
   </si>
   <si>
+    <t xml:space="preserve"> Resource</t>
+  </si>
+  <si>
     <t>PDFDocument</t>
   </si>
   <si>
@@ -461,9 +464,6 @@
   </si>
   <si>
     <t xml:space="preserve">  1  </t>
-  </si>
-  <si>
-    <t>:Owner</t>
   </si>
 </sst>
 </file>
@@ -903,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB7011A-D3D9-4EA8-AB3C-BA62FE335401}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -937,7 +937,7 @@
         <v>65</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>62</v>
@@ -952,7 +952,7 @@
         <v>67</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L1" s="11" t="s">
         <v>18</v>
@@ -981,25 +981,25 @@
         <v>69</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J2" t="s">
         <v>68</v>
       </c>
       <c r="K2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M2" t="s">
         <v>95</v>
@@ -1025,13 +1025,13 @@
         <v>70</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="N3" t="s">
         <v>94</v>
@@ -1054,10 +1054,10 @@
         <v>71</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L4" t="s">
         <v>104</v>
@@ -1083,13 +1083,13 @@
         <v>72</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N5" t="s">
         <v>94</v>
@@ -1112,10 +1112,10 @@
         <v>103</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>19</v>
@@ -1138,10 +1138,10 @@
         <v>102</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L7" t="s">
         <v>19</v>
@@ -1158,7 +1158,7 @@
         <v>78</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C8" s="6"/>
       <c r="G8" t="s">
@@ -1168,7 +1168,7 @@
         <v>79</v>
       </c>
       <c r="L8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D9" t="s">
         <v>95</v>
@@ -1211,7 +1211,7 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E10" t="s">
         <v>95</v>
@@ -1237,10 +1237,10 @@
         <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G11" t="s">
         <v>84</v>
@@ -1257,18 +1257,18 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K12" t="s">
         <v>95</v>
@@ -1282,25 +1282,25 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H13" t="s">
         <v>94</v>
       </c>
       <c r="K13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s">
         <v>94</v>
@@ -1308,16 +1308,16 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H14" t="s">
         <v>94</v>
@@ -1326,7 +1326,7 @@
         <v>95</v>
       </c>
       <c r="L14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1346,7 +1346,7 @@
         <v>95</v>
       </c>
       <c r="L15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -1354,10 +1354,10 @@
         <v>94</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
@@ -1365,31 +1365,31 @@
         <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D18" t="s">
         <v>95</v>
       </c>
       <c r="I18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="I20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
@@ -1545,7 +1545,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1553,7 +1553,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1561,7 +1561,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1634,25 +1634,25 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" t="s">
         <v>115</v>
-      </c>
-      <c r="B16" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/excel2project_files/test-name (test_label)/resources.xlsx
+++ b/testdata/excel2project_files/test-name (test_label)/resources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nusjoh00-adm/Desktop/dsp-tools/testdata/excel2project_files/test-name (test_label)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED63ABD-9B1F-6A48-8D86-EA3E5DC1D190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EE1B09-7B42-2B40-B799-CA52B3893422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{7DA9512F-9D5C-45E8-B143-D0C99717614D}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="136">
   <si>
     <t>Cardinality</t>
   </si>
@@ -376,15 +376,6 @@
     <t>invalid</t>
   </si>
   <si>
-    <t>because</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
     <t xml:space="preserve">             </t>
   </si>
   <si>
@@ -425,9 +416,6 @@
   </si>
   <si>
     <t>Rumantsch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                       </t>
   </si>
   <si>
     <t>Only Rumantsch</t>
@@ -901,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB7011A-D3D9-4EA8-AB3C-BA62FE335401}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -937,7 +925,7 @@
         <v>65</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>62</v>
@@ -952,7 +940,7 @@
         <v>67</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L1" s="11" t="s">
         <v>18</v>
@@ -981,25 +969,25 @@
         <v>69</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J2" t="s">
         <v>68</v>
       </c>
       <c r="K2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M2" t="s">
         <v>95</v>
@@ -1025,10 +1013,10 @@
         <v>70</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>105</v>
@@ -1054,10 +1042,10 @@
         <v>71</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" t="s">
         <v>126</v>
-      </c>
-      <c r="H4" t="s">
-        <v>130</v>
       </c>
       <c r="L4" t="s">
         <v>104</v>
@@ -1083,13 +1071,13 @@
         <v>72</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N5" t="s">
         <v>94</v>
@@ -1112,10 +1100,10 @@
         <v>103</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>19</v>
@@ -1138,10 +1126,10 @@
         <v>102</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L7" t="s">
         <v>19</v>
@@ -1158,7 +1146,7 @@
         <v>78</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C8" s="6"/>
       <c r="G8" t="s">
@@ -1168,7 +1156,7 @@
         <v>79</v>
       </c>
       <c r="L8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1177,7 +1165,7 @@
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D9" t="s">
         <v>95</v>
@@ -1211,7 +1199,7 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E10" t="s">
         <v>95</v>
@@ -1237,10 +1225,10 @@
         <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
         <v>84</v>
@@ -1262,7 +1250,7 @@
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="F12" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>107</v>
@@ -1282,114 +1270,65 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" t="s">
-        <v>112</v>
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" t="s">
+        <v>94</v>
       </c>
       <c r="H13" t="s">
         <v>94</v>
       </c>
-      <c r="K13" t="s">
-        <v>127</v>
+      <c r="J13" t="s">
+        <v>95</v>
       </c>
       <c r="L13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" t="s">
+        <v>111</v>
+      </c>
+      <c r="L15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D16" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
         <v>111</v>
       </c>
-      <c r="H14" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" t="s">
-        <v>95</v>
-      </c>
-      <c r="L14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" t="s">
-        <v>95</v>
-      </c>
-      <c r="G15" t="s">
-        <v>94</v>
-      </c>
-      <c r="H15" t="s">
-        <v>94</v>
-      </c>
-      <c r="J15" t="s">
-        <v>95</v>
-      </c>
-      <c r="L15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
         <v>114</v>
-      </c>
-      <c r="L17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" t="s">
-        <v>95</v>
-      </c>
-      <c r="I18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="E19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="I20" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1518,7 +1457,7 @@
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1526,7 +1465,7 @@
     </row>
     <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
@@ -1534,7 +1473,7 @@
     </row>
     <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
@@ -1545,7 +1484,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1553,7 +1492,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1561,7 +1500,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1634,10 +1573,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1652,7 +1591,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
